--- a/VISCOSITA/viscosità.xlsx
+++ b/VISCOSITA/viscosità.xlsx
@@ -3,18 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="raccolta dati" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>temperatura</t>
   </si>
@@ -80,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">v limite 20cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">misura r=3mm d = 10cm</t>
   </si>
 </sst>
 </file>
@@ -3537,7 +3541,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
       <c r="A1">
@@ -3707,6 +3711,536 @@
       </c>
     </row>
     <row r="12"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="22.57421875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9">
+        <v>3.1600000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9">
+        <v>3.0800000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9">
+        <v>2.9199999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9">
+        <v>3.1699999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9">
+        <v>2.8999999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9">
+        <v>3.0099999999999998</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9">
+        <v>3.0600000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9">
+        <v>2.8799999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9">
+        <v>2.8399999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9">
+        <v>2.8700000000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9">
+        <v>2.9199999999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9">
+        <v>3.0099999999999998</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9">
+        <v>2.8399999999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9">
+        <v>2.8700000000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9">
+        <v>3.0499999999999998</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9">
+        <v>2.9300000000000002</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9">
+        <v>2.9500000000000002</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9">
+        <v>2.8999999999999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9">
+        <v>2.9500000000000002</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9">
+        <v>2.8999999999999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9">
+        <v>3.0899999999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="12">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="12">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="12">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="12">
+        <v>3.0099999999999998</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="12">
+        <v>2.9100000000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="12">
+        <v>2.9199999999999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="12">
+        <v>2.9100000000000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="12">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12">
+        <v>3.0499999999999998</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="12">
+        <v>2.9300000000000002</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="12">
+        <v>3.0299999999999998</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="12">
+        <v>2.9900000000000002</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12">
+        <v>2.8999999999999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="12">
+        <v>2.9100000000000001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="12">
+        <v>2.9900000000000002</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="12">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="12">
+        <v>2.9300000000000002</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="12">
+        <v>2.9100000000000001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12">
+        <v>2.8999999999999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="12">
+        <v>2.9399999999999999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="12">
+        <v>2.8700000000000001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="12">
+        <v>2.8999999999999999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="12">
+        <v>2.9900000000000002</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="12">
+        <v>2.9300000000000002</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="12">
+        <v>3.0499999999999998</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="12">
+        <v>3.0499999999999998</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="12">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="12">
+        <v>2.9700000000000002</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="12">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="12">
+        <v>3.0899999999999999</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="12">
+        <v>2.9300000000000002</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="12">
+        <v>2.8999999999999999</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="12">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="12">
+        <v>3.0499999999999998</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="12">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="12">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="12">
+        <v>2.9300000000000002</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="12">
+        <v>3.0699999999999998</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="12">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="12">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="12">
+        <v>3.0600000000000001</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="12">
+        <v>3.1000000000000001</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="12">
+        <v>3.0600000000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="12">
+        <v>2.9199999999999999</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="12">
+        <v>3.1200000000000001</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="12">
+        <v>3.0699999999999998</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="12">
+        <v>2.9199999999999999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="12">
+        <v>3.1000000000000001</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="12">
+        <v>3.0699999999999998</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="12">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="12">
+        <v>2.9700000000000002</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="12">
+        <v>3.0800000000000001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9">
+        <v>3.1499999999999999</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9">
+        <v>2.8900000000000001</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9">
+        <v>3.0499999999999998</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9">
+        <v>3.0899999999999999</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9">
+        <v>3.0299999999999998</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9">
+        <v>2.8900000000000001</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9">
+        <v>2.9300000000000002</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9">
+        <v>2.9900000000000002</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9">
+        <v>2.8999999999999999</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="12">
+        <v>3.0600000000000001</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="12">
+        <v>2.9500000000000002</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="12">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="12">
+        <v>2.8900000000000001</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="12">
+        <v>2.9500000000000002</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="12">
+        <v>2.9100000000000001</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9">
+        <v>3.1600000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/VISCOSITA/viscosità.xlsx
+++ b/VISCOSITA/viscosità.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -94,10 +94,16 @@
     <numFmt numFmtId="160" formatCode="0.0000"/>
     <numFmt numFmtId="161" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF9C6500"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
@@ -106,12 +112,18 @@
       <sz val="10.000000"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -147,18 +159,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -168,13 +181,14 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="161" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -182,8 +196,9 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2013,7 +2028,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" t="s">
+      <c r="F8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H8" t="s">
@@ -2029,7 +2044,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9">
+      <c r="F9" s="12">
         <v>5.8700000000000001</v>
       </c>
       <c r="H9" t="s">
@@ -2048,7 +2063,7 @@
         <f t="shared" ref="E10:E73" si="0">D10-$I$11</f>
         <v>0.17534653465346484</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="12">
         <v>5.8099999999999996</v>
       </c>
       <c r="H10" t="s">
@@ -2069,7 +2084,7 @@
         <f t="shared" si="0"/>
         <v>0.095346534653464765</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="12">
         <v>5.8099999999999996</v>
       </c>
       <c r="H11" t="s">
@@ -2095,7 +2110,7 @@
         <f t="shared" si="0"/>
         <v>-0.064653465346535377</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="12">
         <v>5.8300000000000001</v>
       </c>
       <c r="H12" t="s">
@@ -2120,7 +2135,7 @@
         <f t="shared" si="0"/>
         <v>0.18534653465346462</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="12">
         <v>5.8499999999999996</v>
       </c>
     </row>
@@ -2138,7 +2153,7 @@
         <f t="shared" si="0"/>
         <v>-0.084653465346535395</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="12">
         <v>5.9400000000000004</v>
       </c>
       <c r="H14" t="s">
@@ -2163,7 +2178,7 @@
         <f t="shared" si="0"/>
         <v>0.025346534653464481</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="12">
         <v>5.9699999999999998</v>
       </c>
       <c r="H15" t="s">
@@ -2188,7 +2203,7 @@
         <f t="shared" si="0"/>
         <v>0.075346534653464747</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="12">
         <v>5.9900000000000002</v>
       </c>
     </row>
@@ -2206,7 +2221,7 @@
         <f t="shared" si="0"/>
         <v>0.015346534653464694</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="12">
         <v>5.7599999999999998</v>
       </c>
       <c r="H17" s="3"/>
@@ -2225,7 +2240,7 @@
         <f t="shared" si="0"/>
         <v>-0.10465346534653541</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="12">
         <v>5.8799999999999999</v>
       </c>
     </row>
@@ -2243,7 +2258,7 @@
         <f t="shared" si="0"/>
         <v>-0.14465346534653545</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="12">
         <v>5.9800000000000004</v>
       </c>
     </row>
@@ -2479,14 +2494,14 @@
       <c r="B35">
         <v>2</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="13">
         <v>2.96</v>
       </c>
       <c r="E35" s="9">
         <f t="shared" si="0"/>
         <v>-0.024653465346535341</v>
       </c>
-      <c r="F35" s="13"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" s="9">
@@ -2495,14 +2510,14 @@
       <c r="B36">
         <v>3</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="13">
         <v>3.02</v>
       </c>
       <c r="E36" s="9">
         <f t="shared" si="0"/>
         <v>0.035346534653464712</v>
       </c>
-      <c r="F36" s="13"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="9">
@@ -2511,14 +2526,14 @@
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="13">
         <v>3.04</v>
       </c>
       <c r="E37" s="9">
         <f t="shared" si="0"/>
         <v>0.05534653465346473</v>
       </c>
-      <c r="F37" s="13"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" s="9">
@@ -2527,14 +2542,14 @@
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="13">
         <v>3.0099999999999998</v>
       </c>
       <c r="E38" s="9">
         <f t="shared" si="0"/>
         <v>0.025346534653464481</v>
       </c>
-      <c r="F38" s="13"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="9">
@@ -2543,14 +2558,14 @@
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="13">
         <v>2.9100000000000001</v>
       </c>
       <c r="E39" s="9">
         <f t="shared" si="0"/>
         <v>-0.074653465346535164</v>
       </c>
-      <c r="F39" s="13"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" s="9">
@@ -2559,14 +2574,14 @@
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="13">
         <v>2.9199999999999999</v>
       </c>
       <c r="E40" s="9">
         <f t="shared" si="0"/>
         <v>-0.064653465346535377</v>
       </c>
-      <c r="F40" s="13"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="9">
@@ -2575,7 +2590,7 @@
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="13">
         <v>2.9100000000000001</v>
       </c>
       <c r="E41" s="9">
@@ -2586,7 +2601,7 @@
     <row r="42" ht="14.25">
       <c r="A42" s="9"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="12">
+      <c r="D42" s="13">
         <v>3</v>
       </c>
       <c r="E42" s="9">
@@ -2597,14 +2612,14 @@
     <row r="43" ht="14.25">
       <c r="A43" s="9"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="12">
+      <c r="D43" s="13">
         <v>3</v>
       </c>
       <c r="E43" s="9">
         <f t="shared" si="0"/>
         <v>0.015346534653464694</v>
       </c>
-      <c r="F43" s="13"/>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="9"/>
@@ -2613,331 +2628,331 @@
         <v>100</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="12">
+      <c r="D44" s="13">
         <v>2.96</v>
       </c>
       <c r="E44" s="9">
         <f t="shared" si="0"/>
         <v>-0.024653465346535341</v>
       </c>
-      <c r="F44" s="13"/>
+      <c r="F44" s="14"/>
     </row>
     <row r="45" ht="14.25">
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="12">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="13">
         <v>3.0499999999999998</v>
       </c>
       <c r="E45" s="9">
         <f t="shared" si="0"/>
         <v>0.065346534653464516</v>
       </c>
-      <c r="F45" s="13"/>
+      <c r="F45" s="14"/>
     </row>
     <row r="46" ht="14.25">
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="12">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="13">
         <v>2.9300000000000002</v>
       </c>
       <c r="E46" s="9">
         <f t="shared" si="0"/>
         <v>-0.054653465346535146</v>
       </c>
-      <c r="F46" s="13"/>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" ht="14.25">
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="12">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="13">
         <v>2.98</v>
       </c>
       <c r="E47" s="9">
         <f t="shared" si="0"/>
         <v>-0.0046534653465353237</v>
       </c>
-      <c r="F47" s="13"/>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" ht="14.25">
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="12">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="13">
         <v>3.0299999999999998</v>
       </c>
       <c r="E48" s="9">
         <f t="shared" si="0"/>
         <v>0.045346534653464499</v>
       </c>
-      <c r="F48" s="13"/>
+      <c r="F48" s="14"/>
     </row>
     <row r="49" ht="14.25">
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="12">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="13">
         <v>2.96</v>
       </c>
       <c r="E49" s="9">
         <f t="shared" si="0"/>
         <v>-0.024653465346535341</v>
       </c>
-      <c r="F49" s="13"/>
+      <c r="F49" s="14"/>
     </row>
     <row r="50" ht="14.25">
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="12">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="13">
         <v>2.9900000000000002</v>
       </c>
       <c r="E50" s="9">
         <f t="shared" si="0"/>
         <v>0.0053465346534649072</v>
       </c>
-      <c r="F50" s="13"/>
+      <c r="F50" s="14"/>
     </row>
     <row r="51" ht="14.25">
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="12">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="13">
         <v>2.8999999999999999</v>
       </c>
       <c r="E51" s="9">
         <f t="shared" si="0"/>
         <v>-0.084653465346535395</v>
       </c>
-      <c r="F51" s="13"/>
+      <c r="F51" s="14"/>
     </row>
     <row r="52" ht="14.25">
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="12">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="13">
         <v>2.9100000000000001</v>
       </c>
       <c r="E52" s="9">
         <f t="shared" si="0"/>
         <v>-0.074653465346535164</v>
       </c>
-      <c r="F52" s="13"/>
+      <c r="F52" s="14"/>
     </row>
     <row r="53" ht="14.25">
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="12">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="13">
         <v>2.9900000000000002</v>
       </c>
       <c r="E53" s="9">
         <f t="shared" si="0"/>
         <v>0.0053465346534649072</v>
       </c>
-      <c r="F53" s="13"/>
+      <c r="F53" s="14"/>
     </row>
     <row r="54" ht="14.25">
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="12">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="13">
         <v>3.02</v>
       </c>
       <c r="E54" s="9">
         <f t="shared" si="0"/>
         <v>0.035346534653464712</v>
       </c>
-      <c r="F54" s="13"/>
+      <c r="F54" s="14"/>
     </row>
     <row r="55" ht="14.25">
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="12">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="13">
         <v>2.9300000000000002</v>
       </c>
       <c r="E55" s="9">
         <f t="shared" si="0"/>
         <v>-0.054653465346535146</v>
       </c>
-      <c r="F55" s="13"/>
+      <c r="F55" s="14"/>
     </row>
     <row r="56" ht="14.25">
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="12">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="13">
         <v>2.9100000000000001</v>
       </c>
       <c r="E56" s="9">
         <f t="shared" si="0"/>
         <v>-0.074653465346535164</v>
       </c>
-      <c r="F56" s="13"/>
+      <c r="F56" s="14"/>
     </row>
     <row r="57" ht="14.25">
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="12">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="13">
         <v>2.8999999999999999</v>
       </c>
       <c r="E57" s="9">
         <f t="shared" si="0"/>
         <v>-0.084653465346535395</v>
       </c>
-      <c r="F57" s="13"/>
+      <c r="F57" s="14"/>
     </row>
     <row r="58" ht="14.25">
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="12">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="13">
         <v>2.9399999999999999</v>
       </c>
       <c r="E58" s="9">
         <f t="shared" si="0"/>
         <v>-0.044653465346535359</v>
       </c>
-      <c r="F58" s="13"/>
+      <c r="F58" s="14"/>
     </row>
     <row r="59" ht="14.25">
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="12">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="13">
         <v>2.8700000000000001</v>
       </c>
       <c r="E59" s="9">
         <f t="shared" si="0"/>
         <v>-0.1146534653465352</v>
       </c>
-      <c r="F59" s="13"/>
+      <c r="F59" s="14"/>
     </row>
     <row r="60" ht="14.25">
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="12">
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="13">
         <v>2.8999999999999999</v>
       </c>
       <c r="E60" s="9">
         <f t="shared" si="0"/>
         <v>-0.084653465346535395</v>
       </c>
-      <c r="F60" s="13"/>
+      <c r="F60" s="14"/>
     </row>
     <row r="61" ht="14.25">
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="12">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="13">
         <v>2.9900000000000002</v>
       </c>
       <c r="E61" s="9">
         <f t="shared" si="0"/>
         <v>0.0053465346534649072</v>
       </c>
-      <c r="F61" s="13"/>
+      <c r="F61" s="14"/>
     </row>
     <row r="62" ht="14.25">
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="12">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="13">
         <v>2.9300000000000002</v>
       </c>
       <c r="E62" s="9">
         <f t="shared" si="0"/>
         <v>-0.054653465346535146</v>
       </c>
-      <c r="F62" s="13"/>
+      <c r="F62" s="14"/>
     </row>
     <row r="63" ht="14.25">
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="12">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="13">
         <v>3.0499999999999998</v>
       </c>
       <c r="E63" s="9">
         <f t="shared" si="0"/>
         <v>0.065346534653464516</v>
       </c>
-      <c r="F63" s="13"/>
+      <c r="F63" s="14"/>
     </row>
     <row r="64" ht="14.25">
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="12">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="13">
         <v>3.0499999999999998</v>
       </c>
       <c r="E64" s="9">
         <f t="shared" si="0"/>
         <v>0.065346534653464516</v>
       </c>
-      <c r="F64" s="13"/>
+      <c r="F64" s="14"/>
     </row>
     <row r="65" ht="14.25">
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="12">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="13">
         <v>2.98</v>
       </c>
       <c r="E65" s="9">
         <f t="shared" si="0"/>
         <v>-0.0046534653465353237</v>
       </c>
-      <c r="F65" s="13"/>
+      <c r="F65" s="14"/>
     </row>
     <row r="66" ht="14.25">
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="12">
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="13">
         <v>2.9700000000000002</v>
       </c>
       <c r="E66" s="9">
         <f t="shared" si="0"/>
         <v>-0.014653465346535111</v>
       </c>
-      <c r="F66" s="13"/>
+      <c r="F66" s="14"/>
     </row>
     <row r="67" ht="14.25">
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="12">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="13">
         <v>2.98</v>
       </c>
       <c r="E67" s="9">
         <f t="shared" si="0"/>
         <v>-0.0046534653465353237</v>
       </c>
-      <c r="F67" s="13"/>
+      <c r="F67" s="14"/>
     </row>
     <row r="68" ht="14.25">
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="12">
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="13">
         <v>3.0899999999999999</v>
       </c>
       <c r="E68" s="9">
         <f t="shared" si="0"/>
         <v>0.10534653465346455</v>
       </c>
-      <c r="F68" s="13"/>
+      <c r="F68" s="14"/>
     </row>
     <row r="69" ht="14.25">
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="12">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="13">
         <v>2.9300000000000002</v>
       </c>
       <c r="E69" s="9">
         <f t="shared" si="0"/>
         <v>-0.054653465346535146</v>
       </c>
-      <c r="F69" s="13"/>
+      <c r="F69" s="14"/>
     </row>
     <row r="70" ht="14.25">
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="12">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="13">
         <v>3</v>
       </c>
       <c r="E70" s="9">
         <f t="shared" si="0"/>
         <v>0.015346534653464694</v>
       </c>
-      <c r="F70" s="13"/>
+      <c r="F70" s="14"/>
     </row>
     <row r="71" ht="14.25">
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="12">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="13">
         <v>3</v>
       </c>
       <c r="E71" s="9">
@@ -2946,9 +2961,9 @@
       </c>
     </row>
     <row r="72" ht="14.25">
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="12">
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="13">
         <v>2.8999999999999999</v>
       </c>
       <c r="E72" s="9">
@@ -2957,9 +2972,9 @@
       </c>
     </row>
     <row r="73" ht="14.25">
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="12">
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="13">
         <v>2.96</v>
       </c>
       <c r="E73" s="9">
@@ -2968,9 +2983,9 @@
       </c>
     </row>
     <row r="74" ht="14.25">
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="12">
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="13">
         <v>3.0499999999999998</v>
       </c>
       <c r="E74" s="9">
@@ -2979,9 +2994,9 @@
       </c>
     </row>
     <row r="75" ht="14.25">
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="12">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="13">
         <v>3.02</v>
       </c>
       <c r="E75" s="9">
@@ -2990,9 +3005,9 @@
       </c>
     </row>
     <row r="76" ht="14.25">
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="12">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="13">
         <v>3.02</v>
       </c>
       <c r="E76" s="9">
@@ -3001,9 +3016,9 @@
       </c>
     </row>
     <row r="77" ht="14.25">
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="12">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="13">
         <v>2.9300000000000002</v>
       </c>
       <c r="E77" s="9">
@@ -3012,9 +3027,9 @@
       </c>
     </row>
     <row r="78" ht="14.25">
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="12">
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="13">
         <v>3.0699999999999998</v>
       </c>
       <c r="E78" s="9">
@@ -3023,9 +3038,9 @@
       </c>
     </row>
     <row r="79" ht="14.25">
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="12">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="13">
         <v>2.98</v>
       </c>
       <c r="E79" s="9">
@@ -3034,9 +3049,9 @@
       </c>
     </row>
     <row r="80" ht="14.25">
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="12">
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="13">
         <v>2.96</v>
       </c>
       <c r="E80" s="9">
@@ -3045,9 +3060,9 @@
       </c>
     </row>
     <row r="81" ht="14.25">
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="12">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="13">
         <v>3.0600000000000001</v>
       </c>
       <c r="E81" s="9">
@@ -3056,10 +3071,10 @@
       </c>
     </row>
     <row r="82" ht="14.25">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="12">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="13">
         <v>3.1000000000000001</v>
       </c>
       <c r="E82" s="9">
@@ -3068,10 +3083,10 @@
       </c>
     </row>
     <row r="83" ht="14.25">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="12">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="13">
         <v>3.0600000000000001</v>
       </c>
       <c r="E83" s="9">
@@ -3080,10 +3095,10 @@
       </c>
     </row>
     <row r="84" ht="14.25">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="12">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="13">
         <v>2.9199999999999999</v>
       </c>
       <c r="E84" s="9">
@@ -3092,10 +3107,10 @@
       </c>
     </row>
     <row r="85" ht="14.25">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="12">
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="13">
         <v>3.1200000000000001</v>
       </c>
       <c r="E85" s="9">
@@ -3104,10 +3119,10 @@
       </c>
     </row>
     <row r="86" ht="14.25">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="12">
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="13">
         <v>3.0699999999999998</v>
       </c>
       <c r="E86" s="9">
@@ -3116,10 +3131,10 @@
       </c>
     </row>
     <row r="87" ht="14.25">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="12">
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="13">
         <v>3</v>
       </c>
       <c r="E87" s="9">
@@ -3128,88 +3143,88 @@
       </c>
     </row>
     <row r="88" ht="14.25">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="12">
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="13">
         <v>2.9199999999999999</v>
       </c>
       <c r="E88" s="9">
         <f t="shared" si="1"/>
         <v>-0.064653465346535377</v>
       </c>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
     </row>
     <row r="89" ht="14.25">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="12">
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="13">
         <v>3.1000000000000001</v>
       </c>
       <c r="E89" s="9">
         <f t="shared" si="1"/>
         <v>0.11534653465346478</v>
       </c>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
     </row>
     <row r="90" ht="14.25">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="12">
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="13">
         <v>3.0699999999999998</v>
       </c>
       <c r="E90" s="9">
         <f t="shared" si="1"/>
         <v>0.085346534653464534</v>
       </c>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
     </row>
     <row r="91" ht="14.25">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="12">
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="13">
         <v>3.02</v>
       </c>
       <c r="E91" s="9">
         <f t="shared" si="1"/>
         <v>0.035346534653464712</v>
       </c>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
     </row>
     <row r="92" ht="14.25">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="12">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="13">
         <v>2.9700000000000002</v>
       </c>
       <c r="E92" s="9">
         <f t="shared" si="1"/>
         <v>-0.014653465346535111</v>
       </c>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
     </row>
     <row r="93" ht="14.25">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="12">
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="13">
         <v>3.0800000000000001</v>
       </c>
       <c r="E93" s="9">
         <f t="shared" si="1"/>
         <v>0.095346534653464765</v>
       </c>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
     </row>
     <row r="94" ht="14.25">
       <c r="D94" s="9">
@@ -3302,80 +3317,80 @@
       </c>
     </row>
     <row r="104" ht="14.25">
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="12">
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="13">
         <v>3.0600000000000001</v>
       </c>
       <c r="E104" s="9">
         <f t="shared" si="2"/>
         <v>0.075346534653464747</v>
       </c>
-      <c r="F104" s="13"/>
+      <c r="F104" s="14"/>
     </row>
     <row r="105" ht="14.25">
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="12">
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="13">
         <v>2.9500000000000002</v>
       </c>
       <c r="E105" s="9">
         <f t="shared" si="2"/>
         <v>-0.034653465346535128</v>
       </c>
-      <c r="F105" s="13"/>
+      <c r="F105" s="14"/>
     </row>
     <row r="106" ht="14.25">
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="12">
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="13">
         <v>3.02</v>
       </c>
       <c r="E106" s="9">
         <f t="shared" si="2"/>
         <v>0.035346534653464712</v>
       </c>
-      <c r="F106" s="13"/>
+      <c r="F106" s="14"/>
     </row>
     <row r="107" ht="14.25">
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="12">
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="13">
         <v>2.8900000000000001</v>
       </c>
       <c r="E107" s="9">
         <f t="shared" si="2"/>
         <v>-0.094653465346535182</v>
       </c>
-      <c r="F107" s="13"/>
+      <c r="F107" s="14"/>
     </row>
     <row r="108" ht="14.25">
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="12">
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="13">
         <v>2.9500000000000002</v>
       </c>
       <c r="E108" s="9">
         <f t="shared" si="2"/>
         <v>-0.034653465346535128</v>
       </c>
-      <c r="F108" s="13"/>
+      <c r="F108" s="14"/>
     </row>
     <row r="109" ht="14.25">
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="12">
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="13">
         <v>2.9100000000000001</v>
       </c>
       <c r="E109" s="9">
         <f t="shared" si="2"/>
         <v>-0.074653465346535164</v>
       </c>
-      <c r="F109" s="13"/>
+      <c r="F109" s="14"/>
     </row>
     <row r="110" ht="14.25">
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
       <c r="D110" s="9">
         <v>3.1600000000000001</v>
       </c>
@@ -3383,147 +3398,147 @@
         <f t="shared" si="2"/>
         <v>0.17534653465346484</v>
       </c>
-      <c r="F110" s="13"/>
+      <c r="F110" s="14"/>
     </row>
     <row r="111" ht="14.25">
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
     </row>
     <row r="112" ht="14.25">
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
     </row>
     <row r="113" ht="14.25">
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
     </row>
     <row r="114" ht="14.25">
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
     </row>
     <row r="115" ht="14.25">
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
     </row>
     <row r="116" ht="14.25">
-      <c r="B116" s="13"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
     </row>
     <row r="117" ht="14.25">
-      <c r="B117" s="13"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
     </row>
     <row r="118" ht="14.25">
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
     </row>
     <row r="119" ht="14.25">
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
     </row>
     <row r="120" ht="14.25">
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
     </row>
     <row r="121" ht="14.25">
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
     </row>
     <row r="122" ht="14.25">
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
     </row>
     <row r="123" ht="14.25">
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
     </row>
     <row r="124" ht="14.25">
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
     </row>
     <row r="125" ht="14.25">
-      <c r="B125" s="13"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
     </row>
     <row r="126" ht="14.25">
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
     </row>
     <row r="127" ht="14.25">
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
     </row>
     <row r="128" ht="14.25">
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
     </row>
     <row r="129" ht="14.25">
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
     </row>
     <row r="130" ht="14.25">
-      <c r="B130" s="13"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -3726,7 +3741,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="22.57421875"/>
   </cols>
@@ -3862,297 +3877,297 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="12">
+      <c r="A27" s="13">
         <v>2.96</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="12">
+      <c r="A28" s="13">
         <v>3.02</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="12">
+      <c r="A29" s="13">
         <v>3.04</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="12">
+      <c r="A30" s="13">
         <v>3.0099999999999998</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="12">
+      <c r="A31" s="13">
         <v>2.9100000000000001</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="12">
+      <c r="A32" s="13">
         <v>2.9199999999999999</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="12">
+      <c r="A33" s="13">
         <v>2.9100000000000001</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="12">
+      <c r="A34" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="12">
+      <c r="A35" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="12">
+      <c r="A36" s="13">
         <v>2.96</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="12">
+      <c r="A37" s="13">
         <v>3.0499999999999998</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="12">
+      <c r="A38" s="13">
         <v>2.9300000000000002</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="12">
+      <c r="A39" s="13">
         <v>2.98</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="12">
+      <c r="A40" s="13">
         <v>3.0299999999999998</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="12">
+      <c r="A41" s="13">
         <v>2.96</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="12">
+      <c r="A42" s="13">
         <v>2.9900000000000002</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="12">
+      <c r="A43" s="13">
         <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="12">
+      <c r="A44" s="13">
         <v>2.9100000000000001</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="12">
+      <c r="A45" s="13">
         <v>2.9900000000000002</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="12">
+      <c r="A46" s="13">
         <v>3.02</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="12">
+      <c r="A47" s="13">
         <v>2.9300000000000002</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="12">
+      <c r="A48" s="13">
         <v>2.9100000000000001</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="12">
+      <c r="A49" s="13">
         <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="12">
+      <c r="A50" s="13">
         <v>2.9399999999999999</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="12">
+      <c r="A51" s="13">
         <v>2.8700000000000001</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="12">
+      <c r="A52" s="13">
         <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="12">
+      <c r="A53" s="13">
         <v>2.9900000000000002</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="12">
+      <c r="A54" s="13">
         <v>2.9300000000000002</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="12">
+      <c r="A55" s="13">
         <v>3.0499999999999998</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="12">
+      <c r="A56" s="13">
         <v>3.0499999999999998</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="12">
+      <c r="A57" s="13">
         <v>2.98</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="12">
+      <c r="A58" s="13">
         <v>2.9700000000000002</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="12">
+      <c r="A59" s="13">
         <v>2.98</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="12">
+      <c r="A60" s="13">
         <v>3.0899999999999999</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="12">
+      <c r="A61" s="13">
         <v>2.9300000000000002</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="12">
+      <c r="A62" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="12">
+      <c r="A63" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="12">
+      <c r="A64" s="13">
         <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="12">
+      <c r="A65" s="13">
         <v>2.96</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="12">
+      <c r="A66" s="13">
         <v>3.0499999999999998</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="12">
+      <c r="A67" s="13">
         <v>3.02</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="12">
+      <c r="A68" s="13">
         <v>3.02</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="12">
+      <c r="A69" s="13">
         <v>2.9300000000000002</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="12">
+      <c r="A70" s="13">
         <v>3.0699999999999998</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="12">
+      <c r="A71" s="13">
         <v>2.98</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="12">
+      <c r="A72" s="13">
         <v>2.96</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="12">
+      <c r="A73" s="13">
         <v>3.0600000000000001</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="12">
+      <c r="A74" s="13">
         <v>3.1000000000000001</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="12">
+      <c r="A75" s="13">
         <v>3.0600000000000001</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="12">
+      <c r="A76" s="13">
         <v>2.9199999999999999</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="12">
+      <c r="A77" s="13">
         <v>3.1200000000000001</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="12">
+      <c r="A78" s="13">
         <v>3.0699999999999998</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="12">
+      <c r="A79" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="12">
+      <c r="A80" s="13">
         <v>2.9199999999999999</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="12">
+      <c r="A81" s="13">
         <v>3.1000000000000001</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="12">
+      <c r="A82" s="13">
         <v>3.0699999999999998</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="12">
+      <c r="A83" s="13">
         <v>3.02</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="12">
+      <c r="A84" s="13">
         <v>2.9700000000000002</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="12">
+      <c r="A85" s="13">
         <v>3.0800000000000001</v>
       </c>
     </row>
@@ -4207,32 +4222,32 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="12">
+      <c r="A96" s="13">
         <v>3.0600000000000001</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="12">
+      <c r="A97" s="13">
         <v>2.9500000000000002</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="12">
+      <c r="A98" s="13">
         <v>3.02</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="12">
+      <c r="A99" s="13">
         <v>2.8900000000000001</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="12">
+      <c r="A100" s="13">
         <v>2.9500000000000002</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="12">
+      <c r="A101" s="13">
         <v>2.9100000000000001</v>
       </c>
     </row>
@@ -4244,7 +4259,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/VISCOSITA/viscosità.xlsx
+++ b/VISCOSITA/viscosità.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="raccolta dati" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="cacca" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="misure caldo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="chiquadro a manina" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="misure caldo 100" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="misure freddo" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -278,7 +280,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$12</c:f>
+              <c:f>cacca!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -361,7 +363,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$13:$A$41</c:f>
+              <c:f>cacca!$A$13:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
@@ -457,7 +459,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$B$41</c:f>
+              <c:f>cacca!$B$13:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -3742,6 +3744,109 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1">
+        <v>22</v>
+      </c>
+      <c r="B1">
+        <v>16</v>
+      </c>
+      <c r="C1">
+        <f>A1-B1</f>
+        <v>6</v>
+      </c>
+      <c r="D1">
+        <f>C1*C1</f>
+        <v>36</v>
+      </c>
+      <c r="E1">
+        <f>D1/B1</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <f>A2-B2</f>
+        <v>-4</v>
+      </c>
+      <c r="D2">
+        <f>C2*C2</f>
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <f>D2/B2</f>
+        <v>0.47058823529411764</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <f>A3-B3</f>
+        <v>-4</v>
+      </c>
+      <c r="D3">
+        <f>C3*C3</f>
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <f>D3/B3</f>
+        <v>0.47058823529411764</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <f>A4-B4</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f>C4*C4</f>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f>D4/B4</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="E6">
+        <f>SUM(E1:E4)</f>
+        <v>3.4411764705882355</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="22.57421875"/>
   </cols>
@@ -4262,4 +4367,109 @@
   <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>21.789999999999999</v>
+      </c>
+      <c r="B3">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>21.5</v>
+      </c>
+      <c r="B4">
+        <v>10.300000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>21.75</v>
+      </c>
+      <c r="B5">
+        <v>10.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>22.039999999999999</v>
+      </c>
+      <c r="B6">
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>21.710000000000001</v>
+      </c>
+      <c r="B7">
+        <v>10.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>21.77</v>
+      </c>
+      <c r="B8">
+        <v>10.029999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>22.030000000000001</v>
+      </c>
+      <c r="B9">
+        <v>9.8100000000000005</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>21.789999999999999</v>
+      </c>
+      <c r="B10">
+        <v>9.8800000000000008</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>21.440000000000001</v>
+      </c>
+      <c r="B11">
+        <v>10.029999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>21.66</v>
+      </c>
+      <c r="B12">
+        <v>9.9399999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/VISCOSITA/viscosità.xlsx
+++ b/VISCOSITA/viscosità.xlsx
@@ -4385,85 +4385,184 @@
       <c r="B1">
         <v>3</v>
       </c>
+      <c r="C1">
+        <v>4</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" s="9">
         <v>21.789999999999999</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>10.130000000000001</v>
       </c>
+      <c r="C3" s="9">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2.96</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>21.5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>10.300000000000001</v>
       </c>
+      <c r="C4" s="9">
+        <v>6.0199999999999996</v>
+      </c>
+      <c r="D4" s="9">
+        <v>4.0800000000000001</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2.96</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>21.75</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>10.17</v>
       </c>
+      <c r="C5" s="9">
+        <v>6.0700000000000003</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4.04</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2.96</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" s="9">
         <v>22.039999999999999</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>10.24</v>
       </c>
+      <c r="C6" s="9">
+        <v>5.9100000000000001</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3.98</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2.9500000000000002</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" s="9">
         <v>21.710000000000001</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="9">
         <v>10.19</v>
       </c>
+      <c r="C7" s="9">
+        <v>6.0700000000000003</v>
+      </c>
+      <c r="D7" s="9">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.9500000000000002</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" s="9">
         <v>21.77</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="9">
         <v>10.029999999999999</v>
       </c>
+      <c r="C8" s="9">
+        <v>6.0300000000000002</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4.0700000000000003</v>
+      </c>
+      <c r="E8" s="9">
+        <v>3.1299999999999999</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="A9" s="9">
         <v>22.030000000000001</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="9">
         <v>9.8100000000000005</v>
       </c>
+      <c r="C9" s="9">
+        <v>5.8399999999999999</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3.98</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2.9100000000000001</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" s="9">
         <v>21.789999999999999</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="9">
         <v>9.8800000000000008</v>
       </c>
+      <c r="C10" s="9">
+        <v>5.8399999999999999</v>
+      </c>
+      <c r="D10" s="9">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2.8300000000000001</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" s="9">
         <v>21.440000000000001</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="9">
         <v>10.029999999999999</v>
       </c>
+      <c r="C11" s="9">
+        <v>6.04</v>
+      </c>
+      <c r="D11" s="9">
+        <v>4.0099999999999998</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2.8900000000000001</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="A12" s="9">
         <v>21.66</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="9">
         <v>9.9399999999999995</v>
+      </c>
+      <c r="C12" s="9">
+        <v>5.8399999999999999</v>
+      </c>
+      <c r="D12" s="9">
+        <v>3.96</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2.9500000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/VISCOSITA/viscosità.xlsx
+++ b/VISCOSITA/viscosità.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="cacca" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,13 +11,14 @@
     <sheet name="chiquadro a manina" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="misure caldo 100" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="misure freddo" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="analisi misure fredde" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>temperatura</t>
   </si>
@@ -86,6 +87,27 @@
   </si>
   <si>
     <t xml:space="preserve">misura r=3mm d = 10cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T = 18.5</t>
+  </si>
+  <si>
+    <t>raggio</t>
+  </si>
+  <si>
+    <t>tempi</t>
+  </si>
+  <si>
+    <t>distanza</t>
+  </si>
+  <si>
+    <t>r^2</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -165,7 +187,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -197,6 +219,16 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,7 +839,736 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>v - r^2</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f xml:space="preserve">'analisi misure fredde'!$A$18</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f xml:space="preserve">'analisi misure fredde'!$B$17:$F$17</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f xml:space="preserve">'analisi misure fredde'!$B$18:$F$18</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="1998337699"/>
+        <c:axId val="1998337700"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1998337699"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1998337700"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1998337700"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1998337699"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="7453312" y="1698624"/>
+      <a:ext cx="2571750" cy="2686843"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>v - r</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f xml:space="preserve">'analisi misure fredde'!$A$18</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:showBubbleSize val="0"/>
+            <c:showCatName val="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showPercent val="0"/>
+            <c:showSerName val="0"/>
+            <c:showVal val="0"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr/>
+              </a:p>
+            </c:txPr>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f xml:space="preserve">'analisi misure fredde'!$B$19:$F$19</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f xml:space="preserve">'analisi misure fredde'!$B$18:$F$18</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="1998337705"/>
+        <c:axId val="1998337706"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1998337705"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1998337706"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1998337706"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1998337705"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="4587874" y="1698624"/>
+      <a:ext cx="952499" cy="2686843"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1372,6 +2133,1102 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
@@ -1401,6 +3258,75 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>246062</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3968</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="712486159" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7453312" y="1698624"/>
+        <a:ext cx="2571750" cy="2686843"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>39687</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3968</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1238035819" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4587874" y="1698624"/>
+        <a:ext cx="952499" cy="2686843"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4394,6 +6320,9 @@
       <c r="E1">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="9">
@@ -4571,4 +6500,386 @@
   <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="15">
+        <v>2</v>
+      </c>
+      <c r="C1" s="15">
+        <v>3</v>
+      </c>
+      <c r="D1" s="15">
+        <v>4</v>
+      </c>
+      <c r="E1" s="15">
+        <v>5</v>
+      </c>
+      <c r="F1" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="9">
+        <v>21.789999999999999</v>
+      </c>
+      <c r="C3" s="9">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="D3" s="9">
+        <v>6</v>
+      </c>
+      <c r="E3" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2.96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3">
+        <v>0.20000000000000001</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="9">
+        <v>21.5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>10.300000000000001</v>
+      </c>
+      <c r="D4" s="9">
+        <v>6.0199999999999996</v>
+      </c>
+      <c r="E4" s="9">
+        <v>4.0800000000000001</v>
+      </c>
+      <c r="F4" s="9">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="9">
+        <v>21.75</v>
+      </c>
+      <c r="C5" s="9">
+        <v>10.17</v>
+      </c>
+      <c r="D5" s="9">
+        <v>6.0700000000000003</v>
+      </c>
+      <c r="E5" s="9">
+        <v>4.04</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="9">
+        <v>22.039999999999999</v>
+      </c>
+      <c r="C6" s="9">
+        <v>10.24</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5.9100000000000001</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3.98</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2.9500000000000002</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="9">
+        <v>21.710000000000001</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10.19</v>
+      </c>
+      <c r="D7" s="9">
+        <v>6.0700000000000003</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2.9500000000000002</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="9">
+        <v>21.77</v>
+      </c>
+      <c r="C8" s="9">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="D8" s="9">
+        <v>6.0300000000000002</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4.0700000000000003</v>
+      </c>
+      <c r="F8" s="9">
+        <v>3.1299999999999999</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="9">
+        <v>22.030000000000001</v>
+      </c>
+      <c r="C9" s="9">
+        <v>9.8100000000000005</v>
+      </c>
+      <c r="D9" s="9">
+        <v>5.8399999999999999</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3.98</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2.9100000000000001</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="9">
+        <v>21.789999999999999</v>
+      </c>
+      <c r="C10" s="9">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="D10" s="9">
+        <v>5.8399999999999999</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2.8300000000000001</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="9">
+        <v>21.440000000000001</v>
+      </c>
+      <c r="C11" s="9">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="D11" s="9">
+        <v>6.04</v>
+      </c>
+      <c r="E11" s="9">
+        <v>4.0099999999999998</v>
+      </c>
+      <c r="F11" s="9">
+        <v>2.8900000000000001</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="9">
+        <v>21.66</v>
+      </c>
+      <c r="C12" s="9">
+        <v>9.9399999999999995</v>
+      </c>
+      <c r="D12" s="9">
+        <v>5.8399999999999999</v>
+      </c>
+      <c r="E12" s="9">
+        <v>3.96</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2.9500000000000002</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" s="9">
+        <f>AVERAGE(B3:B12)</f>
+        <v>21.747999999999998</v>
+      </c>
+      <c r="C14" s="9">
+        <f>AVERAGE(C3:C12)</f>
+        <v>10.071999999999999</v>
+      </c>
+      <c r="D14" s="9">
+        <f>AVERAGE(D3:D12)</f>
+        <v>5.9659999999999993</v>
+      </c>
+      <c r="E14" s="9">
+        <f>AVERAGE(E3:E12)</f>
+        <v>4.0259999999999998</v>
+      </c>
+      <c r="F14" s="9">
+        <f>AVERAGE(F3:F12)</f>
+        <v>2.9489999999999998</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="15">
+        <v>4</v>
+      </c>
+      <c r="C17" s="15">
+        <v>9</v>
+      </c>
+      <c r="D17" s="15">
+        <v>16</v>
+      </c>
+      <c r="E17" s="15">
+        <v>25</v>
+      </c>
+      <c r="F17" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <f>$I$3/B14</f>
+        <v>0.0091962479308442171</v>
+      </c>
+      <c r="C18">
+        <f>$I$3/C14</f>
+        <v>0.019857029388403499</v>
+      </c>
+      <c r="D18">
+        <f>$I$3/D14</f>
+        <v>0.033523298692591359</v>
+      </c>
+      <c r="E18">
+        <f>$I$3/E14</f>
+        <v>0.04967709885742673</v>
+      </c>
+      <c r="F18">
+        <f>$I$3/F14</f>
+        <v>0.067819599864360813</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25"/>
+    <row r="21" ht="14.25">
+      <c r="A21"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="P29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>9</v>
+      </c>
+      <c r="S29">
+        <v>16</v>
+      </c>
+      <c r="T29">
+        <v>25</v>
+      </c>
+      <c r="U29">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A12"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/VISCOSITA/viscosità.xlsx
+++ b/VISCOSITA/viscosità.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet name="cacca" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="misure caldo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="T = 24.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="chiquadro a manina" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="misure caldo 100" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="misure freddo" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="analisi misure fredde" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="T=18.5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="pesi sferette" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="analisi misure fredde" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -89,7 +90,10 @@
     <t xml:space="preserve">misura r=3mm d = 10cm</t>
   </si>
   <si>
-    <t xml:space="preserve">T = 18.5</t>
+    <t>r</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
   <si>
     <t>raggio</t>
@@ -105,9 +109,6 @@
   </si>
   <si>
     <t>v</t>
-  </si>
-  <si>
-    <t>r</t>
   </si>
 </sst>
 </file>
@@ -187,7 +188,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -219,6 +220,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -5507,7 +5509,9 @@
       <c r="A2" s="9">
         <v>11.9</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="15">
+        <v>5.8700000000000001</v>
+      </c>
       <c r="C2" s="9">
         <v>3.4199999999999999</v>
       </c>
@@ -5522,7 +5526,9 @@
       <c r="A3" s="9">
         <v>11.76</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="15">
+        <v>5.8099999999999996</v>
+      </c>
       <c r="C3" s="9">
         <v>3.4399999999999999</v>
       </c>
@@ -5537,7 +5543,9 @@
       <c r="A4" s="9">
         <v>12.210000000000001</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="15">
+        <v>5.8099999999999996</v>
+      </c>
       <c r="C4" s="9">
         <v>3.46</v>
       </c>
@@ -5552,7 +5560,9 @@
       <c r="A5" s="9">
         <v>12</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="15">
+        <v>5.8300000000000001</v>
+      </c>
       <c r="C5" s="9">
         <v>3.4300000000000002</v>
       </c>
@@ -5567,7 +5577,9 @@
       <c r="A6" s="9">
         <v>11.779999999999999</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="15">
+        <v>5.8499999999999996</v>
+      </c>
       <c r="C6" s="9">
         <v>3.46</v>
       </c>
@@ -5582,7 +5594,9 @@
       <c r="A7" s="9">
         <v>12.199999999999999</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="15">
+        <v>5.9400000000000004</v>
+      </c>
       <c r="C7" s="9">
         <v>3.3399999999999999</v>
       </c>
@@ -5597,7 +5611,9 @@
       <c r="A8" s="9">
         <v>12</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="15">
+        <v>5.9699999999999998</v>
+      </c>
       <c r="C8" s="9">
         <v>3.5600000000000001</v>
       </c>
@@ -5612,7 +5628,9 @@
       <c r="A9" s="9">
         <v>11.91</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="15">
+        <v>5.9900000000000002</v>
+      </c>
       <c r="C9" s="9">
         <v>3.3700000000000001</v>
       </c>
@@ -5627,7 +5645,9 @@
       <c r="A10" s="9">
         <v>12</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="15">
+        <v>5.7599999999999998</v>
+      </c>
       <c r="C10" s="9">
         <v>3.3500000000000001</v>
       </c>
@@ -5642,7 +5662,9 @@
       <c r="A11" s="9">
         <v>12.369999999999999</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="15">
+        <v>5.8799999999999999</v>
+      </c>
       <c r="C11" s="9">
         <v>3.4199999999999999</v>
       </c>
@@ -5653,7 +5675,13 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="12"/>
+    <row r="12">
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -6320,22 +6348,36 @@
       <c r="E1">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>23</v>
+    </row>
+    <row r="2">
+      <c r="A2" s="9">
+        <v>21.789999999999999</v>
+      </c>
+      <c r="B2" s="9">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="C2" s="9">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E2" s="9">
+        <v>2.96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9">
-        <v>21.789999999999999</v>
+        <v>21.5</v>
       </c>
       <c r="B3" s="9">
-        <v>10.130000000000001</v>
+        <v>10.300000000000001</v>
       </c>
       <c r="C3" s="9">
-        <v>6</v>
+        <v>6.0199999999999996</v>
       </c>
       <c r="D3" s="9">
-        <v>4.0999999999999996</v>
+        <v>4.0800000000000001</v>
       </c>
       <c r="E3" s="9">
         <v>2.96</v>
@@ -6343,16 +6385,16 @@
     </row>
     <row r="4">
       <c r="A4" s="9">
-        <v>21.5</v>
+        <v>21.75</v>
       </c>
       <c r="B4" s="9">
-        <v>10.300000000000001</v>
+        <v>10.17</v>
       </c>
       <c r="C4" s="9">
-        <v>6.0199999999999996</v>
+        <v>6.0700000000000003</v>
       </c>
       <c r="D4" s="9">
-        <v>4.0800000000000001</v>
+        <v>4.04</v>
       </c>
       <c r="E4" s="9">
         <v>2.96</v>
@@ -6360,33 +6402,33 @@
     </row>
     <row r="5">
       <c r="A5" s="9">
-        <v>21.75</v>
+        <v>22.039999999999999</v>
       </c>
       <c r="B5" s="9">
-        <v>10.17</v>
+        <v>10.24</v>
       </c>
       <c r="C5" s="9">
-        <v>6.0700000000000003</v>
+        <v>5.9100000000000001</v>
       </c>
       <c r="D5" s="9">
-        <v>4.04</v>
+        <v>3.98</v>
       </c>
       <c r="E5" s="9">
-        <v>2.96</v>
+        <v>2.9500000000000002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9">
-        <v>22.039999999999999</v>
+        <v>21.710000000000001</v>
       </c>
       <c r="B6" s="9">
-        <v>10.24</v>
+        <v>10.19</v>
       </c>
       <c r="C6" s="9">
-        <v>5.9100000000000001</v>
+        <v>6.0700000000000003</v>
       </c>
       <c r="D6" s="9">
-        <v>3.98</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E6" s="9">
         <v>2.9500000000000002</v>
@@ -6394,106 +6436,90 @@
     </row>
     <row r="7">
       <c r="A7" s="9">
-        <v>21.710000000000001</v>
+        <v>21.77</v>
       </c>
       <c r="B7" s="9">
-        <v>10.19</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="C7" s="9">
-        <v>6.0700000000000003</v>
+        <v>6.0300000000000002</v>
       </c>
       <c r="D7" s="9">
-        <v>4.0199999999999996</v>
+        <v>4.0700000000000003</v>
       </c>
       <c r="E7" s="9">
-        <v>2.9500000000000002</v>
+        <v>3.1299999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9">
-        <v>21.77</v>
+        <v>22.030000000000001</v>
       </c>
       <c r="B8" s="9">
-        <v>10.029999999999999</v>
+        <v>9.8100000000000005</v>
       </c>
       <c r="C8" s="9">
-        <v>6.0300000000000002</v>
+        <v>5.8399999999999999</v>
       </c>
       <c r="D8" s="9">
-        <v>4.0700000000000003</v>
+        <v>3.98</v>
       </c>
       <c r="E8" s="9">
-        <v>3.1299999999999999</v>
+        <v>2.9100000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9">
-        <v>22.030000000000001</v>
+        <v>21.789999999999999</v>
       </c>
       <c r="B9" s="9">
-        <v>9.8100000000000005</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="C9" s="9">
         <v>5.8399999999999999</v>
       </c>
       <c r="D9" s="9">
-        <v>3.98</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E9" s="9">
-        <v>2.9100000000000001</v>
+        <v>2.8300000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9">
-        <v>21.789999999999999</v>
+        <v>21.440000000000001</v>
       </c>
       <c r="B10" s="9">
-        <v>9.8800000000000008</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="C10" s="9">
-        <v>5.8399999999999999</v>
+        <v>6.04</v>
       </c>
       <c r="D10" s="9">
-        <v>4.0199999999999996</v>
+        <v>4.0099999999999998</v>
       </c>
       <c r="E10" s="9">
-        <v>2.8300000000000001</v>
+        <v>2.8900000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9">
-        <v>21.440000000000001</v>
+        <v>21.66</v>
       </c>
       <c r="B11" s="9">
-        <v>10.029999999999999</v>
+        <v>9.9399999999999995</v>
       </c>
       <c r="C11" s="9">
-        <v>6.04</v>
+        <v>5.8399999999999999</v>
       </c>
       <c r="D11" s="9">
-        <v>4.0099999999999998</v>
+        <v>3.96</v>
       </c>
       <c r="E11" s="9">
-        <v>2.8900000000000001</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9">
-        <v>21.66</v>
-      </c>
-      <c r="B12" s="9">
-        <v>9.9399999999999995</v>
-      </c>
-      <c r="C12" s="9">
-        <v>5.8399999999999999</v>
-      </c>
-      <c r="D12" s="9">
-        <v>3.96</v>
-      </c>
-      <c r="E12" s="9">
         <v>2.9500000000000002</v>
       </c>
     </row>
+    <row r="12"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -6513,34 +6539,85 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="15">
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="C1" s="15">
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3">
         <v>3</v>
       </c>
-      <c r="D1" s="15">
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4">
         <v>4</v>
       </c>
-      <c r="E1" s="15">
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="F1" s="15">
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6">
         <v>6</v>
       </c>
     </row>
+    <row r="7" ht="14.25"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="16">
+        <v>2</v>
+      </c>
+      <c r="C1" s="16">
+        <v>3</v>
+      </c>
+      <c r="D1" s="16">
+        <v>4</v>
+      </c>
+      <c r="E1" s="16">
+        <v>5</v>
+      </c>
+      <c r="F1" s="16">
+        <v>6</v>
+      </c>
+    </row>
     <row r="2" ht="14.25">
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="16" t="s">
-        <v>25</v>
+      <c r="A3" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="9">
         <v>21.789999999999999</v>
@@ -6558,14 +6635,14 @@
         <v>2.96</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3">
         <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="9">
         <v>21.5</v>
       </c>
@@ -6583,7 +6660,7 @@
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="9">
         <v>21.75</v>
       </c>
@@ -6601,7 +6678,7 @@
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="9">
         <v>22.039999999999999</v>
       </c>
@@ -6619,7 +6696,7 @@
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="9">
         <v>21.710000000000001</v>
       </c>
@@ -6637,7 +6714,7 @@
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="9">
         <v>21.77</v>
       </c>
@@ -6655,7 +6732,7 @@
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="9">
         <v>22.030000000000001</v>
       </c>
@@ -6673,7 +6750,7 @@
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="9">
         <v>21.789999999999999</v>
       </c>
@@ -6691,7 +6768,7 @@
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="9">
         <v>21.440000000000001</v>
       </c>
@@ -6709,7 +6786,7 @@
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="9">
         <v>21.66</v>
       </c>
@@ -6749,42 +6826,42 @@
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="15">
+        <v>28</v>
+      </c>
+      <c r="B17" s="16">
         <v>4</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="16">
         <v>9</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="16">
         <v>16</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="16">
         <v>25</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="16">
         <v>36</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <f>$I$3/B14</f>
@@ -6809,7 +6886,7 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -6830,31 +6907,31 @@
     <row r="20" ht="14.25"/>
     <row r="21" ht="14.25">
       <c r="A21"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" ht="14.25">
       <c r="A22"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" ht="14.25">
       <c r="A23"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="29" ht="14.25">
       <c r="P29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q29">
         <v>4</v>

--- a/VISCOSITA/viscosità.xlsx
+++ b/VISCOSITA/viscosità.xlsx
@@ -2,6 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
+  <workbookProtection lockStructure="0"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
@@ -15,6 +16,68 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C4ECE08A-416B-2393-46B6-BC1C7BFE41D6}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" xr:uid="{C4ECE08A-416B-2393-46B6-BC1C7BFE41D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>gio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+misure del tempo di caduta di una sfera di diametro 2,3,4,5,6 mm lungo un cilindro graduato con glicerina per d = 20cm a temperatura 24.5°C
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={76C70A7C-5595-AB8D-D02A-04032CFAD57D}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" xr:uid="{76C70A7C-5595-AB8D-D02A-04032CFAD57D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>gio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+100 misure di una sfera di diametro 3mm in caduta nella glicerina con temperatura esterna di 24.5°C. d = 10cm
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={C4EF1186-AB0E-2D4E-111B-997FA9B238C4}</author>
@@ -168,13 +231,16 @@
     <xf fontId="3" fillId="3" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="4" fillId="4" borderId="3" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf fontId="3" fillId="3" borderId="2" numFmtId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf fontId="3" fillId="3" borderId="2" numFmtId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf fontId="3" fillId="3" borderId="2" numFmtId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -201,7 +267,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="gio" id="{61798DDE-00C9-B5CE-081B-950096035D8F}" userId="gio" providerId="Teamlab"/>
+  <person displayName="gio" id="{26FA59F5-2C94-182B-7FAC-85FDDFA9A228}" userId="gio" providerId="Teamlab"/>
 </personList>
 </file>
 
@@ -697,7 +763,25 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2023-02-01T09:32:29.17Z" personId="{61798DDE-00C9-B5CE-081B-950096035D8F}" id="{C4EF1186-AB0E-2D4E-111B-997FA9B238C4}" done="1">
+  <threadedComment ref="A1" dT="2023-02-01T09:46:44.58Z" personId="{26FA59F5-2C94-182B-7FAC-85FDDFA9A228}" id="{C4ECE08A-416B-2393-46B6-BC1C7BFE41D6}" done="1">
+    <text xml:space="preserve">misure del tempo di caduta di una sfera di diametro 2,3,4,5,6 mm lungo un cilindro graduato con glicerina per d = 20cm a temperatura 24.5°C
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2023-02-01T09:47:50.27Z" personId="{26FA59F5-2C94-182B-7FAC-85FDDFA9A228}" id="{76C70A7C-5595-AB8D-D02A-04032CFAD57D}" done="1">
+    <text xml:space="preserve">100 misure di una sfera di diametro 3mm in caduta nella glicerina con temperatura esterna di 24.5°C. d = 10cm
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2023-02-01T09:32:29.17Z" personId="{26FA59F5-2C94-182B-7FAC-85FDDFA9A228}" id="{C4EF1186-AB0E-2D4E-111B-997FA9B238C4}" done="1">
     <text xml:space="preserve">Mirsure prese con sferette di diametro varabile tra 2 e 6 mm, effettuate con temperatura di 18.5°C
 </text>
   </threadedComment>
@@ -713,7 +797,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="20.25">
       <c r="A1" s="1">
         <v>2</v>
       </c>
@@ -900,12 +984,8 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12"/>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="B13"/>
-    </row>
+    <row r="12"/>
+    <row r="13" ht="14.25"/>
     <row r="14" ht="14.25"/>
   </sheetData>
   <sheetProtection autoFilter="1" deleteColumns="0" deleteRows="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertHyperlinks="1" insertRows="0" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
@@ -913,6 +993,7 @@
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -934,507 +1015,507 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>3.1600000000000001</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>3.0800000000000001</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>2.9199999999999999</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>3.1699999999999999</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>3.0099999999999998</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>3.0600000000000001</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>2.8799999999999999</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>2.8399999999999999</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>2.8700000000000001</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>2.9199999999999999</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>3.0099999999999998</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>2.8399999999999999</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>2.8700000000000001</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>3.02</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>3.04</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>3.0499999999999998</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>2.9300000000000002</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>2.9500000000000002</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>2.9500000000000002</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>2.96</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>3.0899999999999999</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>2.96</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>3.02</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>3.04</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <v>3.0099999999999998</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>2.9100000000000001</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <v>2.9199999999999999</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>2.9100000000000001</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <v>2.96</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>3.0499999999999998</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>2.9300000000000002</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>2.98</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>3.0299999999999998</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>2.96</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <v>2.9900000000000002</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <v>2.9100000000000001</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>2.9900000000000002</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4">
+      <c r="A46" s="5">
         <v>3.02</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <v>2.9300000000000002</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4">
+      <c r="A48" s="5">
         <v>2.9100000000000001</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4">
+      <c r="A49" s="5">
         <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4">
+      <c r="A50" s="5">
         <v>2.9399999999999999</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4">
+      <c r="A51" s="5">
         <v>2.8700000000000001</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4">
+      <c r="A52" s="5">
         <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4">
+      <c r="A53" s="5">
         <v>2.9900000000000002</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4">
+      <c r="A54" s="5">
         <v>2.9300000000000002</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4">
+      <c r="A55" s="5">
         <v>3.0499999999999998</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4">
+      <c r="A56" s="5">
         <v>3.0499999999999998</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4">
+      <c r="A57" s="5">
         <v>2.98</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="4">
+      <c r="A58" s="5">
         <v>2.9700000000000002</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="4">
+      <c r="A59" s="5">
         <v>2.98</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4">
+      <c r="A60" s="5">
         <v>3.0899999999999999</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="4">
+      <c r="A61" s="5">
         <v>2.9300000000000002</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="4">
+      <c r="A62" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="4">
+      <c r="A63" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="4">
+      <c r="A64" s="5">
         <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="4">
+      <c r="A65" s="5">
         <v>2.96</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="4">
+      <c r="A66" s="5">
         <v>3.0499999999999998</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="4">
+      <c r="A67" s="5">
         <v>3.02</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="4">
+      <c r="A68" s="5">
         <v>3.02</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="4">
+      <c r="A69" s="5">
         <v>2.9300000000000002</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="4">
+      <c r="A70" s="5">
         <v>3.0699999999999998</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="4">
+      <c r="A71" s="5">
         <v>2.98</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="4">
+      <c r="A72" s="5">
         <v>2.96</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="4">
+      <c r="A73" s="5">
         <v>3.0600000000000001</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="4">
+      <c r="A74" s="5">
         <v>3.1000000000000001</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="4">
+      <c r="A75" s="5">
         <v>3.0600000000000001</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="4">
+      <c r="A76" s="5">
         <v>2.9199999999999999</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="4">
+      <c r="A77" s="5">
         <v>3.1200000000000001</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="4">
+      <c r="A78" s="5">
         <v>3.0699999999999998</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="4">
+      <c r="A79" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="4">
+      <c r="A80" s="5">
         <v>2.9199999999999999</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="4">
+      <c r="A81" s="5">
         <v>3.1000000000000001</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="4">
+      <c r="A82" s="5">
         <v>3.0699999999999998</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="4">
+      <c r="A83" s="5">
         <v>3.02</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="4">
+      <c r="A84" s="5">
         <v>2.9700000000000002</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="4">
+      <c r="A85" s="5">
         <v>3.0800000000000001</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2">
+      <c r="A86" s="4">
         <v>3.1499999999999999</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2">
+      <c r="A87" s="4">
         <v>2.8900000000000001</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2">
+      <c r="A88" s="4">
         <v>2.98</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2">
+      <c r="A89" s="4">
         <v>3.0499999999999998</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2">
+      <c r="A90" s="4">
         <v>3.0899999999999999</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2">
+      <c r="A91" s="4">
         <v>3.0299999999999998</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2">
+      <c r="A92" s="4">
         <v>2.8900000000000001</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2">
+      <c r="A93" s="4">
         <v>2.9300000000000002</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2">
+      <c r="A94" s="4">
         <v>2.9900000000000002</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2">
+      <c r="A95" s="4">
         <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="4">
+      <c r="A96" s="5">
         <v>3.0600000000000001</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="4">
+      <c r="A97" s="5">
         <v>2.9500000000000002</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="4">
+      <c r="A98" s="5">
         <v>3.02</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="4">
+      <c r="A99" s="5">
         <v>2.8900000000000001</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="4">
+      <c r="A100" s="5">
         <v>2.9500000000000002</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="4">
+      <c r="A101" s="5">
         <v>2.9100000000000001</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2">
+      <c r="A102" s="4">
         <v>3.1600000000000001</v>
       </c>
     </row>
@@ -1444,6 +1525,7 @@
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1456,190 +1538,190 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="5">
+    <row r="1" ht="20.25">
+      <c r="A1" s="6">
         <v>2</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="6">
         <v>3</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="6">
         <v>4</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="6">
         <v>5</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>21.789999999999999</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>10.130000000000001</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>2.96</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>21.5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>10.300000000000001</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>6.0199999999999996</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>4.0800000000000001</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>2.96</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>21.75</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>10.17</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>6.0700000000000003</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>4.04</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>2.96</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>22.039999999999999</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>10.24</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>5.9100000000000001</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>3.98</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>2.9500000000000002</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>21.710000000000001</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>10.19</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>6.0700000000000003</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>4.0199999999999996</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>2.9500000000000002</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>21.77</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>10.029999999999999</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>6.0300000000000002</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>4.0700000000000003</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>3.1299999999999999</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>22.030000000000001</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>9.8100000000000005</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>5.8399999999999999</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>3.98</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>2.9100000000000001</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>21.789999999999999</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>9.8800000000000008</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>5.8399999999999999</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>4.0199999999999996</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>2.8300000000000001</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>21.440000000000001</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>10.029999999999999</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>6.04</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>4.0099999999999998</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>2.8900000000000001</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>21.66</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>9.9399999999999995</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>5.8399999999999999</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>3.96</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>2.9500000000000002</v>
       </c>
     </row>

--- a/VISCOSITA/viscosità.xlsx
+++ b/VISCOSITA/viscosità.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection lockStructure="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="T = 24.5°C" sheetId="1" state="visible" r:id="rId2"/>
@@ -120,36 +120,36 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <b/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <b/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15.000000"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="15.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -231,7 +231,7 @@
     <xf fontId="3" fillId="3" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="4" fillId="4" borderId="3" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -239,6 +239,7 @@
     <xf fontId="3" fillId="3" borderId="2" numFmtId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf fontId="3" fillId="3" borderId="2" numFmtId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="3" fillId="3" borderId="2" numFmtId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -267,7 +268,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="gio" id="{26FA59F5-2C94-182B-7FAC-85FDDFA9A228}" userId="gio" providerId="Teamlab"/>
+  <person displayName="gio" id="{2E956C40-89CD-1C02-98B3-32FEA8CDA4C8}" userId="gio" providerId="Teamlab"/>
 </personList>
 </file>
 
@@ -763,7 +764,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2023-02-01T09:46:44.58Z" personId="{26FA59F5-2C94-182B-7FAC-85FDDFA9A228}" id="{C4ECE08A-416B-2393-46B6-BC1C7BFE41D6}" done="1">
+  <threadedComment ref="A1" dT="2023-02-01T09:46:44.58Z" personId="{2E956C40-89CD-1C02-98B3-32FEA8CDA4C8}" id="{C4ECE08A-416B-2393-46B6-BC1C7BFE41D6}" done="1">
     <text xml:space="preserve">misure del tempo di caduta di una sfera di diametro 2,3,4,5,6 mm lungo un cilindro graduato con glicerina per d = 20cm a temperatura 24.5°C
 </text>
   </threadedComment>
@@ -772,7 +773,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2023-02-01T09:47:50.27Z" personId="{26FA59F5-2C94-182B-7FAC-85FDDFA9A228}" id="{76C70A7C-5595-AB8D-D02A-04032CFAD57D}" done="1">
+  <threadedComment ref="A1" dT="2023-02-01T09:47:50.27Z" personId="{2E956C40-89CD-1C02-98B3-32FEA8CDA4C8}" id="{76C70A7C-5595-AB8D-D02A-04032CFAD57D}" done="1">
     <text xml:space="preserve">100 misure di una sfera di diametro 3mm in caduta nella glicerina con temperatura esterna di 24.5°C. d = 10cm
 </text>
   </threadedComment>
@@ -781,7 +782,7 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2023-02-01T09:32:29.17Z" personId="{26FA59F5-2C94-182B-7FAC-85FDDFA9A228}" id="{C4EF1186-AB0E-2D4E-111B-997FA9B238C4}" done="1">
+  <threadedComment ref="A1" dT="2023-02-01T09:32:29.17Z" personId="{2E956C40-89CD-1C02-98B3-32FEA8CDA4C8}" id="{C4EF1186-AB0E-2D4E-111B-997FA9B238C4}" done="1">
     <text xml:space="preserve">Mirsure prese con sferette di diametro varabile tra 2 e 6 mm, effettuate con temperatura di 18.5°C
 </text>
   </threadedComment>
@@ -984,14 +985,20 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="12"/>
+    <row r="12">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
     <row r="13" ht="14.25"/>
     <row r="14" ht="14.25"/>
   </sheetData>
   <sheetProtection autoFilter="1" deleteColumns="0" deleteRows="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertHyperlinks="1" insertRows="0" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -1010,512 +1017,512 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>3.1600000000000001</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>3.0800000000000001</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>2.9199999999999999</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>3.1699999999999999</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>3.0099999999999998</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>3.0600000000000001</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>2.8799999999999999</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>2.8399999999999999</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>2.8700000000000001</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>2.9199999999999999</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>3.0099999999999998</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>2.8399999999999999</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>2.8700000000000001</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>3.02</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>3.04</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>3.0499999999999998</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>2.9300000000000002</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>2.9500000000000002</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>2.9500000000000002</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>2.96</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>3.0899999999999999</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5">
+      <c r="A27" s="6">
         <v>2.96</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5">
+      <c r="A28" s="6">
         <v>3.02</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5">
+      <c r="A29" s="6">
         <v>3.04</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5">
+      <c r="A30" s="6">
         <v>3.0099999999999998</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5">
+      <c r="A31" s="6">
         <v>2.9100000000000001</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5">
+      <c r="A32" s="6">
         <v>2.9199999999999999</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5">
+      <c r="A33" s="6">
         <v>2.9100000000000001</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5">
+      <c r="A34" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5">
+      <c r="A35" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5">
+      <c r="A36" s="6">
         <v>2.96</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5">
+      <c r="A37" s="6">
         <v>3.0499999999999998</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5">
+      <c r="A38" s="6">
         <v>2.9300000000000002</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5">
+      <c r="A39" s="6">
         <v>2.98</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5">
+      <c r="A40" s="6">
         <v>3.0299999999999998</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5">
+      <c r="A41" s="6">
         <v>2.96</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5">
+      <c r="A42" s="6">
         <v>2.9900000000000002</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5">
+      <c r="A43" s="6">
         <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5">
+      <c r="A44" s="6">
         <v>2.9100000000000001</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5">
+      <c r="A45" s="6">
         <v>2.9900000000000002</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5">
+      <c r="A46" s="6">
         <v>3.02</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5">
+      <c r="A47" s="6">
         <v>2.9300000000000002</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5">
+      <c r="A48" s="6">
         <v>2.9100000000000001</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5">
+      <c r="A49" s="6">
         <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5">
+      <c r="A50" s="6">
         <v>2.9399999999999999</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5">
+      <c r="A51" s="6">
         <v>2.8700000000000001</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5">
+      <c r="A52" s="6">
         <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5">
+      <c r="A53" s="6">
         <v>2.9900000000000002</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5">
+      <c r="A54" s="6">
         <v>2.9300000000000002</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5">
+      <c r="A55" s="6">
         <v>3.0499999999999998</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5">
+      <c r="A56" s="6">
         <v>3.0499999999999998</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5">
+      <c r="A57" s="6">
         <v>2.98</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5">
+      <c r="A58" s="6">
         <v>2.9700000000000002</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5">
+      <c r="A59" s="6">
         <v>2.98</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5">
+      <c r="A60" s="6">
         <v>3.0899999999999999</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5">
+      <c r="A61" s="6">
         <v>2.9300000000000002</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5">
+      <c r="A62" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="5">
+      <c r="A63" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="5">
+      <c r="A64" s="6">
         <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="5">
+      <c r="A65" s="6">
         <v>2.96</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="5">
+      <c r="A66" s="6">
         <v>3.0499999999999998</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="5">
+      <c r="A67" s="6">
         <v>3.02</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="5">
+      <c r="A68" s="6">
         <v>3.02</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="5">
+      <c r="A69" s="6">
         <v>2.9300000000000002</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="5">
+      <c r="A70" s="6">
         <v>3.0699999999999998</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="5">
+      <c r="A71" s="6">
         <v>2.98</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="5">
+      <c r="A72" s="6">
         <v>2.96</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="5">
+      <c r="A73" s="6">
         <v>3.0600000000000001</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="5">
+      <c r="A74" s="6">
         <v>3.1000000000000001</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="5">
+      <c r="A75" s="6">
         <v>3.0600000000000001</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="5">
+      <c r="A76" s="6">
         <v>2.9199999999999999</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="5">
+      <c r="A77" s="6">
         <v>3.1200000000000001</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="5">
+      <c r="A78" s="6">
         <v>3.0699999999999998</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="5">
+      <c r="A79" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="5">
+      <c r="A80" s="6">
         <v>2.9199999999999999</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="5">
+      <c r="A81" s="6">
         <v>3.1000000000000001</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="5">
+      <c r="A82" s="6">
         <v>3.0699999999999998</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="5">
+      <c r="A83" s="6">
         <v>3.02</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="5">
+      <c r="A84" s="6">
         <v>2.9700000000000002</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="5">
+      <c r="A85" s="6">
         <v>3.0800000000000001</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="4">
+      <c r="A86" s="5">
         <v>3.1499999999999999</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="4">
+      <c r="A87" s="5">
         <v>2.8900000000000001</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="4">
+      <c r="A88" s="5">
         <v>2.98</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="4">
+      <c r="A89" s="5">
         <v>3.0499999999999998</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="4">
+      <c r="A90" s="5">
         <v>3.0899999999999999</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="4">
+      <c r="A91" s="5">
         <v>3.0299999999999998</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="4">
+      <c r="A92" s="5">
         <v>2.8900000000000001</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="4">
+      <c r="A93" s="5">
         <v>2.9300000000000002</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="4">
+      <c r="A94" s="5">
         <v>2.9900000000000002</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="4">
+      <c r="A95" s="5">
         <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="5">
+      <c r="A96" s="6">
         <v>3.0600000000000001</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="5">
+      <c r="A97" s="6">
         <v>2.9500000000000002</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="5">
+      <c r="A98" s="6">
         <v>3.02</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="5">
+      <c r="A99" s="6">
         <v>2.8900000000000001</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="5">
+      <c r="A100" s="6">
         <v>2.9500000000000002</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="5">
+      <c r="A101" s="6">
         <v>2.9100000000000001</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="4">
+      <c r="A102" s="5">
         <v>3.1600000000000001</v>
       </c>
     </row>
@@ -1523,7 +1530,7 @@
   <sheetProtection autoFilter="1" deleteColumns="0" deleteRows="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertHyperlinks="1" insertRows="0" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -1539,189 +1546,189 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" ht="20.25">
-      <c r="A1" s="6">
+      <c r="A1" s="7">
         <v>2</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="7">
         <v>3</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="7">
         <v>4</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="7">
         <v>5</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>21.789999999999999</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>10.130000000000001</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>6</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>2.96</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>21.5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>10.300000000000001</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>6.0199999999999996</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>4.0800000000000001</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>2.96</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>21.75</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>10.17</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>6.0700000000000003</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>4.04</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>2.96</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>22.039999999999999</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>10.24</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>5.9100000000000001</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>3.98</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>2.9500000000000002</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>21.710000000000001</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>10.19</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>6.0700000000000003</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>4.0199999999999996</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>2.9500000000000002</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>21.77</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>10.029999999999999</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>6.0300000000000002</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>4.0700000000000003</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>3.1299999999999999</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>22.030000000000001</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>9.8100000000000005</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>5.8399999999999999</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>3.98</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>2.9100000000000001</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>21.789999999999999</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>9.8800000000000008</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>5.8399999999999999</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>4.0199999999999996</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>2.8300000000000001</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>21.440000000000001</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>10.029999999999999</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>6.04</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>4.0099999999999998</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>2.8900000000000001</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>21.66</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>9.9399999999999995</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>5.8399999999999999</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>3.96</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>2.9500000000000002</v>
       </c>
     </row>
@@ -1730,7 +1737,7 @@
   <sheetProtection autoFilter="1" deleteColumns="0" deleteRows="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertHyperlinks="1" insertRows="0" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/VISCOSITA/viscosità.xlsx
+++ b/VISCOSITA/viscosità.xlsx
@@ -268,7 +268,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="gio" id="{2E956C40-89CD-1C02-98B3-32FEA8CDA4C8}" userId="gio" providerId="Teamlab"/>
+  <person displayName="gio" id="{A75C9C5E-08CA-CC1A-7AF7-8B4D6ABAAFED}" userId="gio" providerId="Teamlab"/>
 </personList>
 </file>
 
@@ -764,7 +764,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2023-02-01T09:46:44.58Z" personId="{2E956C40-89CD-1C02-98B3-32FEA8CDA4C8}" id="{C4ECE08A-416B-2393-46B6-BC1C7BFE41D6}" done="1">
+  <threadedComment ref="A1" dT="2023-02-01T09:46:44.58Z" personId="{A75C9C5E-08CA-CC1A-7AF7-8B4D6ABAAFED}" id="{C4ECE08A-416B-2393-46B6-BC1C7BFE41D6}" done="1">
     <text xml:space="preserve">misure del tempo di caduta di una sfera di diametro 2,3,4,5,6 mm lungo un cilindro graduato con glicerina per d = 20cm a temperatura 24.5°C
 </text>
   </threadedComment>
@@ -773,7 +773,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2023-02-01T09:47:50.27Z" personId="{2E956C40-89CD-1C02-98B3-32FEA8CDA4C8}" id="{76C70A7C-5595-AB8D-D02A-04032CFAD57D}" done="1">
+  <threadedComment ref="A1" dT="2023-02-01T09:47:50.27Z" personId="{A75C9C5E-08CA-CC1A-7AF7-8B4D6ABAAFED}" id="{76C70A7C-5595-AB8D-D02A-04032CFAD57D}" done="1">
     <text xml:space="preserve">100 misure di una sfera di diametro 3mm in caduta nella glicerina con temperatura esterna di 24.5°C. d = 10cm
 </text>
   </threadedComment>
@@ -782,7 +782,7 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2023-02-01T09:32:29.17Z" personId="{2E956C40-89CD-1C02-98B3-32FEA8CDA4C8}" id="{C4EF1186-AB0E-2D4E-111B-997FA9B238C4}" done="1">
+  <threadedComment ref="A1" dT="2023-02-01T09:32:29.17Z" personId="{A75C9C5E-08CA-CC1A-7AF7-8B4D6ABAAFED}" id="{C4EF1186-AB0E-2D4E-111B-997FA9B238C4}" done="1">
     <text xml:space="preserve">Mirsure prese con sferette di diametro varabile tra 2 e 6 mm, effettuate con temperatura di 18.5°C
 </text>
   </threadedComment>
@@ -995,7 +995,7 @@
     <row r="13" ht="14.25"/>
     <row r="14" ht="14.25"/>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="0" deleteRows="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertHyperlinks="1" insertRows="0" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
+  <sheetProtection autoFilter="1" deleteColumns="0" deleteRows="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertHyperlinks="1" insertRows="0" pivotTables="1" selectLockedCells="0" selectUnlockedCells="0" sheet="0" sort="1"/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
